--- a/자료/DATABASE/베이스자료/교필.xlsx
+++ b/자료/DATABASE/베이스자료/교필.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="90" yWindow="360" windowWidth="13965" windowHeight="13740"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="교양테이블(신학교필을교선으로변경)" sheetId="1" r:id="rId1"/>
+    <sheet name="원본데이터" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,20 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
-  <si>
-    <t>교양키(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
   <si>
     <t>학번(INT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교양이름(VARCHAR2(500))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교양필수여부(INT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -38,14 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교양수강횟수(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제여부(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채플</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,18 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영어I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소통하는 지성인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실천하는 평화인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기독교와인문학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,18 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소통하는 지성인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실천하는 평화인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Speaking English 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,11 +194,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아노덴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교양학점(FLOAT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성서와문학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종교와인간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성서와영성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교회음악1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교회음악2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소통하는지성인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실천하는평화인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교양이름2(VARCHAR2(500))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교양이름1(VARCHAR2(500))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아노덴교필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어Ⅱ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,6 +305,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -585,71 +600,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -657,411 +664,466 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="G3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
         <v>41</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>48</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" t="s">
-        <v>54</v>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1073,12 +1135,533 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
